--- a/document/继电器动作策略.xlsx
+++ b/document/继电器动作策略.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="策略" sheetId="1" r:id="rId1"/>
     <sheet name="规则" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="继电器动作序列" sheetId="3" r:id="rId3"/>
+    <sheet name="CS序列_错误" sheetId="4" r:id="rId4"/>
+    <sheet name="CS序列_正确" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="119">
   <si>
     <t>方案1：正向电压(K10→K21)</t>
   </si>
@@ -190,6 +192,216 @@
   </si>
   <si>
     <t>3、K2(x)与K2(x+1)规则如2。【偶数倍开始的连续2个继电器不能同时动作】</t>
+  </si>
+  <si>
+    <t>正端_名称</t>
+  </si>
+  <si>
+    <t>K1A</t>
+  </si>
+  <si>
+    <t>K1B</t>
+  </si>
+  <si>
+    <t>K1C</t>
+  </si>
+  <si>
+    <t>K1D</t>
+  </si>
+  <si>
+    <t>正端_功能</t>
+  </si>
+  <si>
+    <t>PS0</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>PS6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36V</t>
+    </r>
+  </si>
+  <si>
+    <t>Q_DCK DC电流挡</t>
+  </si>
+  <si>
+    <t>AC ±xV@xHz</t>
+  </si>
+  <si>
+    <t>使用状态</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>GPIO_PIN 序号</t>
+  </si>
+  <si>
+    <t>负端_名称</t>
+  </si>
+  <si>
+    <t>K2A</t>
+  </si>
+  <si>
+    <t>K2B</t>
+  </si>
+  <si>
+    <t>K2C</t>
+  </si>
+  <si>
+    <t>K2D</t>
+  </si>
+  <si>
+    <t>负端_功能</t>
+  </si>
+  <si>
+    <t>PS7</t>
+  </si>
+  <si>
+    <t>PS8</t>
+  </si>
+  <si>
+    <t>AC ±30V@50Hz</t>
+  </si>
+  <si>
+    <t>Q_1000Hz AC交流挡</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>CS_12</t>
+  </si>
+  <si>
+    <t>CS_11</t>
+  </si>
+  <si>
+    <t>CS_10</t>
+  </si>
+  <si>
+    <t>CS_1x_Y</t>
+  </si>
+  <si>
+    <t>Vx</t>
+  </si>
+  <si>
+    <t>CS_02</t>
+  </si>
+  <si>
+    <t>CS_01</t>
+  </si>
+  <si>
+    <t>CS_00</t>
+  </si>
+  <si>
+    <t>CS_0x_Y</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>V0/V1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>V1/V2</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>V2/V3</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>V3/V4</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>V4/V5</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>V5/V6</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>V6/V7</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>V7/V8</t>
   </si>
 </sst>
 </file>
@@ -202,10 +414,36 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,13 +663,85 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -453,13 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,12 +972,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="68">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,6 +1035,777 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.25"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.25"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -797,10 +1917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,405 +1929,720 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1560,8 +2995,8 @@
   <sheetPr/>
   <dimension ref="D4:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1572,806 +3007,806 @@
   </cols>
   <sheetData>
     <row r="4" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="D4" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="45" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="152" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="158" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="123" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="4:15">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="18" t="s">
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="51" t="s">
+      <c r="O10" s="158" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="20"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="4:14">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="N12" s="64"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="N12" s="171"/>
     </row>
     <row r="13" spans="6:15">
-      <c r="F13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="71" t="s">
+      <c r="F13" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="178" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="6:15">
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="76" t="s">
+      <c r="M14" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="77" t="s">
+      <c r="N14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="131" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="6:15">
-      <c r="F15" s="27"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="79" t="s">
+      <c r="K15" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="81" t="s">
+      <c r="M15" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="83"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="6:15">
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="83"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="6:15">
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="85" t="s">
+      <c r="J17" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="88" t="s">
+      <c r="M17" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="89" t="s">
+      <c r="O17" s="194" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="6:15">
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="131" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="4:14">
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="N21" s="64"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="171"/>
     </row>
     <row r="22" spans="6:15">
-      <c r="F22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="71" t="s">
+      <c r="F22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="178" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="6:15">
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="131" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="6:15">
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="83"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="6:15">
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="83"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="89" t="s">
+      <c r="O26" s="194" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="6:15">
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="131" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:14">
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="N30" s="64"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="N30" s="171"/>
     </row>
     <row r="31" spans="6:15">
-      <c r="F31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O31" s="71" t="s">
+      <c r="F31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="178" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="6:15">
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O32" s="131" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="6:15">
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="M33" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="27" t="s">
+      <c r="N33" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="83"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="27" t="s">
+      <c r="N34" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="83"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="6:15">
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="39" t="s">
+      <c r="N35" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="89" t="s">
+      <c r="O35" s="194" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="6:15">
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="131" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2424,16 +3859,4622 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C2:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.0277777777778" customWidth="1"/>
+    <col min="13" max="13" width="16.5925925925926" customWidth="1"/>
+    <col min="14" max="14" width="19.1666666666667" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.15"/>
+    <row r="3" ht="16.35" spans="3:17">
+      <c r="C3" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="3:17">
+      <c r="C4" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" ht="15.6" spans="3:17">
+      <c r="C5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="16.35" spans="3:17">
+      <c r="C6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="60">
+        <v>0</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="F6" s="61">
+        <v>2</v>
+      </c>
+      <c r="G6" s="61">
+        <v>3</v>
+      </c>
+      <c r="H6" s="61">
+        <v>4</v>
+      </c>
+      <c r="I6" s="61">
+        <v>5</v>
+      </c>
+      <c r="J6" s="61">
+        <v>6</v>
+      </c>
+      <c r="K6" s="61">
+        <v>7</v>
+      </c>
+      <c r="L6" s="88">
+        <v>8</v>
+      </c>
+      <c r="M6" s="89">
+        <v>9</v>
+      </c>
+      <c r="N6" s="90">
+        <v>10</v>
+      </c>
+      <c r="O6" s="91">
+        <v>11</v>
+      </c>
+      <c r="P6" s="92">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="3:17">
+      <c r="C7" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="3:17">
+      <c r="C8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="82"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" ht="15.6" spans="3:17">
+      <c r="C9" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" ht="16.35" spans="3:17">
+      <c r="C10" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="69">
+        <v>14</v>
+      </c>
+      <c r="E10" s="70">
+        <v>15</v>
+      </c>
+      <c r="F10" s="70">
+        <v>16</v>
+      </c>
+      <c r="G10" s="70">
+        <v>17</v>
+      </c>
+      <c r="H10" s="70">
+        <v>18</v>
+      </c>
+      <c r="I10" s="70">
+        <v>19</v>
+      </c>
+      <c r="J10" s="70">
+        <v>20</v>
+      </c>
+      <c r="K10" s="70">
+        <v>21</v>
+      </c>
+      <c r="L10" s="103">
+        <v>22</v>
+      </c>
+      <c r="M10" s="104">
+        <v>23</v>
+      </c>
+      <c r="N10" s="105">
+        <v>24</v>
+      </c>
+      <c r="O10" s="92">
+        <v>25</v>
+      </c>
+      <c r="P10" s="7">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E2:N67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="5:14">
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="5:14">
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42">
+        <v>0</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14">
+      <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="43">
+        <v>0</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="43">
+        <v>1</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
+      <c r="E14" s="43">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>1</v>
+      </c>
+      <c r="L20" s="44">
+        <v>0</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>1</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>1</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="47">
+        <v>1</v>
+      </c>
+      <c r="K36" s="47">
+        <v>0</v>
+      </c>
+      <c r="L36" s="47">
+        <v>0</v>
+      </c>
+      <c r="M36" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14">
+      <c r="E41" s="45">
+        <v>1</v>
+      </c>
+      <c r="F41" s="45">
+        <v>0</v>
+      </c>
+      <c r="G41" s="45">
+        <v>1</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="21">
+        <v>1</v>
+      </c>
+      <c r="K44" s="21">
+        <v>0</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14">
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
+      <c r="F50" s="21">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="46">
+        <v>1</v>
+      </c>
+      <c r="K52" s="46">
+        <v>1</v>
+      </c>
+      <c r="L52" s="46">
+        <v>0</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14">
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14">
+      <c r="E59" s="46">
+        <v>1</v>
+      </c>
+      <c r="F59" s="46">
+        <v>1</v>
+      </c>
+      <c r="G59" s="46">
+        <v>1</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14">
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14">
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="5:14">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="5:14">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="5:14">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E5:N70"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="5" spans="5:14">
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" ht="15.15" spans="5:14">
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="5:14">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>1</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="5:14">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="35">
+        <v>1</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1</v>
+      </c>
+      <c r="L26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14">
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="5:14">
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14">
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14">
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14">
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14">
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14">
+      <c r="E36" s="18">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14">
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="5:14">
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14">
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="24">
+        <v>0</v>
+      </c>
+      <c r="K39" s="24">
+        <v>0</v>
+      </c>
+      <c r="L39" s="24">
+        <v>0</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" s="38">
+        <v>1</v>
+      </c>
+      <c r="K44" s="38">
+        <v>0</v>
+      </c>
+      <c r="L44" s="38">
+        <v>1</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="5:14">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14">
+      <c r="E47" s="21">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21">
+        <v>1</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="21">
+        <v>0</v>
+      </c>
+      <c r="K53" s="21">
+        <v>1</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="5:14">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14">
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="24">
+        <v>0</v>
+      </c>
+      <c r="K55" s="24">
+        <v>0</v>
+      </c>
+      <c r="L55" s="24">
+        <v>0</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14">
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14">
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N61" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="5:14">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J62" s="40">
+        <v>1</v>
+      </c>
+      <c r="K62" s="40">
+        <v>1</v>
+      </c>
+      <c r="L62" s="40">
+        <v>1</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14">
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="5:14">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="5:14">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="5:14">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="5:14">
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="5:14">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="5:14">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J70" s="18">
+        <v>1</v>
+      </c>
+      <c r="K70" s="18">
+        <v>1</v>
+      </c>
+      <c r="L70" s="18">
+        <v>1</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/继电器动作策略.xlsx
+++ b/document/继电器动作策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="策略" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </r>
   </si>
   <si>
-    <t>Q_DCK DC电流挡</t>
+    <t>Q_DCK DC电流挡(@50Hz)</t>
   </si>
   <si>
     <t>AC ±xV@xHz</t>
@@ -3861,15 +3861,15 @@
   <sheetPr/>
   <dimension ref="C2:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="16.0277777777778" customWidth="1"/>
     <col min="13" max="13" width="16.5925925925926" customWidth="1"/>
-    <col min="14" max="14" width="19.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="22.1296296296296" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4244,7 +4244,7 @@
   <sheetPr/>
   <dimension ref="E2:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
